--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/21_Bursa_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/21_Bursa_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB38B3F2-5F70-4D4E-889A-7C9E1477CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5A4FAE-FB9E-441F-979F-AAB4511B533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{CC30C62A-7BDA-4D47-85CA-BA9690AB805B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{05809C26-3626-4C3D-AB32-C41FCF8F9848}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="94" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{04FD5211-8B50-44D2-8860-6B695B692034}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D67057B8-7C57-47F2-8FBB-F6A3044B445C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EAB148A2-F43D-49FC-84D0-48E0603BBD0F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{04E71DAF-79CA-45EE-96B4-130FA1227F54}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E8A86A99-C164-44AE-8EED-A02FB63FA0FA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{00370B4C-B032-4B06-9E84-2AEE1BC930E0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{ABE59CB9-239B-411A-916C-B4A144117A19}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{613188F4-6161-454C-8ACE-FF33E7608F2C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BD51C17E-AEF8-4C8C-96D9-FA250E2D0DB5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{28333274-2288-44BE-95A5-82CD2CD980D6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{61611CD0-5F58-4CA7-86ED-33FE441AB7D7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6071961F-470A-4AFC-92C0-23DADACA4A07}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4FEB42AB-B16F-4825-8444-C36CC82697F2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FFEF3AFE-21E3-4868-B72B-C04B962359DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190D634F-46B7-4A21-85BD-960167E4BA20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE24F25-CEC0-4968-B525-B51FCCF66B92}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2595,17 +2595,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC53AC5F-238B-419F-A544-E5F15535BBCC}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C62B8425-E318-4375-BDD8-4DF1A0367B76}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ECD15CCD-6389-400C-9E75-C0899BCEDE11}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2460CBE8-022D-42A1-B9C5-9DCC21B44A21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E0CE001-1B58-4057-BD45-56433597EB32}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECD7624D-E9E9-4304-AD03-777AA6DD52C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A36F04DE-A629-479A-A15A-525F79F6E830}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC0E070E-AE01-4FC9-B24F-542C8601B2AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F355F0A4-E664-4E38-A8A8-AF3898A6B193}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61AAD968-41EA-42BE-89FA-7F487D8A27AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0FD407D-90C3-492B-9741-B88355AA8DD7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1239E4EB-D1CC-47C0-8A04-1944444A3D5D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EBE84F75-3DB9-4858-856C-9BEF92256AA5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BBB3F8B-08A4-4EA2-86B7-B810631B3BA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E5CAC78-AA0B-45F4-9DC4-168398F0258F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{355E7CB0-37F4-47FA-A85A-0AB4F5744D00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C06ABF6F-2CBD-4730-9B89-21EE89F1EB95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D94CC591-769F-445E-A251-0F0B72AD7CF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABFDDE63-579D-493F-96D1-12D83D860A85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75BDA2F3-5065-4078-9F60-E557B73E66A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9F40227-C284-4036-89DF-3AA4A1225689}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E68BAE68-0770-4EC8-ABCA-B540F1E3FBBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B734642-20F5-4225-909D-82382E53CC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7CB10C-75AE-4DC8-BDCB-B29180147173}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3886,17 +3886,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46B5D2B4-83B7-4BE9-83FD-3CD74419254E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7ABD84DE-36F8-4682-ADB4-F240F79B2DFB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{83615832-38CA-47B2-BC88-617482A90A5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B50143EA-9957-410D-A584-84AB68690B84}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6787DFD0-C1D2-47F4-8CCC-84FC7D65D2FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE26EFA3-DEDE-4B24-8AF5-FA913321124F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D318CD43-69E1-4F8C-8823-45EB6EE3B17B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7DAE30F-E24E-4847-9F1B-3DD833424373}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5184B822-8223-4AE3-9CF6-D7E213B5C8BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18AC0551-E265-4172-A59B-ABCA081A8834}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74D77FBF-CA17-4E23-B549-09D0AAAE10EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B4ECCE0-27FE-4387-904A-65D8506832EC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{63B03E3F-54D6-426D-9300-AA399DBFB2A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2AB75D8F-AE65-4D2E-9E86-424B8EE7C481}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{835BA6CB-9480-4BAC-8AAC-CB70D477A575}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57BE7DE2-54AE-4159-9C61-B33BF6C298AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8904216-6AC3-4A6B-85CB-15F9E88CAA89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8D867F3-BCFF-4267-B2A4-542D314F07E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB52CE65-762D-493A-9F03-EAEF0875D879}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A60D97E9-9BAF-49AD-911D-9B53EC3BC1C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CB67B9F-3210-4AED-94BA-AFA0BA9C49E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{380FCB90-F698-4C1F-BBB2-0FA86D38C303}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3909,7 +3909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB2DF21-AA54-482D-A0C4-C2D826417D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98576D80-981A-4191-A877-D4E9EAC66EEC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5177,17 +5177,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF38FBF8-2CEC-4B93-B03D-58F6F8F53782}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{89DB45F2-3733-473A-875A-7284A83BE112}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{329A66D0-040C-4B53-8142-4513891957C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BFF6603A-492A-463B-8CCE-014423541238}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22A52BDF-9026-4CE6-AA31-AB4D1E4D5B38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B200ED71-C17E-474A-88CA-2D193F451531}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E35C0AEA-62FA-43E0-9FD7-486B5D41A459}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AFAB609-8F74-414C-AEEE-279EA98C6493}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{990388FB-C404-4BCA-BC60-E6ED4C421204}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6F3E6A3-8DC5-413C-B3F0-4E5716695F96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{808F3F53-EBB8-43E9-ABBC-F234C1E725E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2DBF3FE-8065-4510-A03A-AEB1604E33B0}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{25983E05-0D90-47B7-9546-F3E3922FA5B5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FEA1A361-DC01-44F4-B4AD-896370CF3ED1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D25E2BBF-B5B0-49E0-B03F-AB18E495D1E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{98F49DA1-8E55-4E86-A990-6BE68581AA75}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48487AE3-455A-4866-93CA-4C845EEA3B01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E900238A-A365-4913-97C0-29B7B5084C3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3EA442A-4A28-46EB-9158-71D2C25FFDFD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C616A82C-A624-4D7E-A8C3-0CECBFDD7EA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C393BCA7-10DD-4FFB-9B00-26FE926D66D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C9F8B7F-59DA-4263-AC8B-19B770BF1E6D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5200,7 +5200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE7241-3C11-48E9-91D4-76FACCC6C43F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E77BCF-8A60-4B1E-8045-3BAA8CC92A1D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6460,18 +6460,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AAB93C1-E3BC-4D66-A4AF-306AB5ADC9BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F889965-CBFA-4754-95C6-60B172F661C7}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A6458C7F-38B6-4DEF-9F8B-FCFB585E67BD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37296C56-87C8-485F-A589-1000BA6DD970}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FC412A1-5140-466F-B124-E343135F6934}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59F812AF-F123-429F-B03D-74AB4877118D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8AA3E27-7DDF-45CD-AE08-D7BEA8F42315}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D093788-7539-406F-8518-E10E29FF2E4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F18AB296-5E03-4853-955B-A62C0F7A55D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0962660C-CD1D-4E83-BBED-6EB6DC2A327E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CDD42381-73A1-4505-B934-54D96B1772CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{470267D5-1211-4C2D-8F6A-CE92220B5186}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CB41247-5994-4A5F-BAAC-A488D7021F1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{816404A5-76ED-40F6-BF39-A0C9EDDFFEBF}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{21D94056-3B72-4AE1-896A-30E34C516330}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CBA18735-8334-49D9-9B37-8CADE6E4A4F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B625D257-1176-49DC-B8AB-787873557A50}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{574A6253-0152-445A-B0CA-077D2AD4C6A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BC2A371-7ACE-4B8B-A3F8-BE943287FD85}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8079B499-34DD-4537-B53E-3BA99FA481D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22913EA5-DC1D-461E-800A-72F874BA21D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{434083A8-A823-4337-B23A-01896FE449BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A276FF79-724E-4B46-8A1B-A2FEFDE339B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE74B00F-909B-4F91-A423-1C7D0AD9E451}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6484,7 +6484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73EBBB-CCCE-4571-B046-D785A55F7493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A84CCD-C54A-433E-8A5D-E4D90A4BFBD8}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7768,17 +7768,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF89E970-512C-4389-BFAE-8B64FBDC2BAD}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F42205D6-B1B7-47FE-892F-EFDB42969056}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{06FCD7B3-AF7A-4B1E-B21A-EF3165301B6F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2937B099-0236-4762-B2EE-9DD2FF973B15}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2207AB4-ADC5-48A5-A73A-7784435B7AAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{130361A5-1F4E-48FE-B353-47E2A17B7601}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98EE00EA-F449-46A5-B1BC-D2D74B8716F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1218290-685F-41B6-AD78-29BCED01C6DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE6FCF2B-D053-4346-9714-43252B71251C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC069464-7DE2-4ED5-A601-82F9D530F1BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D833416-6C45-4B35-BD21-7D6F1BFBA761}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17A7A10B-26E1-4990-BB7A-0D4DBE0ECB15}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0F7C51CB-09DC-4B29-9137-ECAA2DAAB128}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F31E27CE-69B3-47C0-A11B-DB714550B774}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0A9714A-CD38-4793-892A-D063C92DA16E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3EF0F943-F142-43A5-B509-94D3342827CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E556E07-A9EB-4883-9ECA-6A15F5CCD6A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11C67830-D0A3-4330-B9B9-24ED6BD0F4CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85D805E2-84D3-4D13-9FE3-F9F739C9413D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A42B46A2-4F1B-497D-9243-D5E76D9134C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D6D2642-915E-4C17-B436-EE0907D514E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A043FF34-A899-412C-89B4-B9818D02C8DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7791,7 +7791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D76CC76-DBC4-438D-84EF-EB0556157492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8F774F-70AC-48EB-B49A-A3494B70303B}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9075,17 +9075,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FC1877C-973F-40B4-AC4E-DDADFD5D9F77}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E444A4F2-D760-44A3-AB2A-9DB256D62E4B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{180AFDB6-76FA-4CE9-8FB2-C29BA250846D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{828DAF19-3DDB-4C05-8DE1-009D8C806832}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09B85418-1062-44F1-A3FB-2D1EAF918B2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{766F9B23-08F0-4BFC-AD4A-4F3329A9FFC7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B746D886-3676-4FA7-8818-633382651FBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7711EB1F-C1F1-41D7-9DD6-691199D1B7C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9ADFDF87-3EE0-484E-83C5-A0E1005792B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D67C824-FFBD-4FD5-B8AB-280B7D791F2C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9944193-435E-432B-A36C-434528F4201F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D16E829-39B8-4EBE-B26F-71EB75D2DDA2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{69111396-52D9-423B-BFEA-85B5BC3EA53E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53A630A6-ACAB-4393-9840-B470C1105688}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6514FD72-0E5F-487A-8D96-C654BF9ED76E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA9EE655-849E-4493-A433-E24D9B2DE734}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70AFD019-FE69-4DF4-A692-EE680D08912B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A7061E9-3864-4E73-A8D5-967188AFADC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8137F6A-C514-45B0-BE2D-D2F149EE82CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{037F86BF-1D00-4D58-8079-D6326BB49005}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CC576EE-9F39-4851-A585-45AB57838E95}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51749ECB-822D-484F-8EB2-752EE31A7D9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9098,7 +9098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB3A8A4-ED9E-4976-A401-B01A9FDFE712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61362A28-7F17-4F1B-BF6B-369D0BA781C0}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10384,17 +10384,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B95411F3-CDDC-4280-8E2F-5483B471029D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{97B3451A-8671-4D7A-9B0C-48C512B3DE35}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ACD46F37-37DE-4E89-AE27-14ADFD4102AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BD097C7-8FA6-4D79-AB58-65C8AF45C580}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5D3F190-DE35-49D7-84FF-5C9C6EAF0AE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FEE30A6-C6D4-41A4-ABDC-A0CC099B2CDE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FA54DDC-B30D-4F02-B746-998BA583ADAC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE59D4CD-DD94-4D4F-A891-8AA8909769FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{09C74214-F947-4D5A-94F5-8F9D831E9BD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2358391-2C4E-4CD0-ADCC-E46B90925475}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14E72389-8BBC-4E6F-8033-6AD3A250C986}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{783A5D79-B7A6-42A9-80D5-BA3CD9F5ED3C}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C87C4C72-7F48-4162-B3F9-68EFFA17BB3E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7B05F905-61D6-41B0-BEA6-4AC3B1F0BD2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9417DD6D-903D-446B-BA87-22CAF7A5C970}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{209C0A59-EA67-41A9-B99C-CF58179FC1F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA38E3BE-E700-4439-AB2D-680E05A4D30E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76E7FB6A-2EA3-402A-8483-9D4057C44DC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{679F9DB4-A595-44B7-9B52-8216C608AD25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F6F90D57-91CD-4EAB-B2EA-8BBA43A232B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8117F0CE-BEA4-4478-BB6D-D0980BD07315}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BA33058-DB80-462D-92F7-1DE401B02EBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10407,7 +10407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237D70A4-416B-4654-B0FA-7C7F9E355BA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA57F8F2-2BA8-4185-A629-B36F8B739B79}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11693,17 +11693,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1154074F-F850-499E-B056-520302DEEC50}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{028CB02B-5595-448E-8CBD-C707E4A2042F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1EAEA4FD-A8FC-4FCD-B300-821FFAF143D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C046A03D-B864-43B3-A8C8-D795A85C4D84}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D53F820-9C3D-4447-A8AE-DCE10F4CF28C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D62A96AE-783B-4196-AC4D-2898242C85D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FBC253A-DE86-499A-B4BA-09BB95F9E1DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BE4118D-8143-4788-AE91-FCD2613E9EBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5C23307-8D4B-4E30-8856-63287D2F7465}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20879458-31DD-4645-86B9-BDD5B945412E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{282CB642-5252-4471-8033-658F60EFAF14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB444272-52A7-4ADB-924A-8AB2CDEB48D6}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{43F1664C-C6DF-4A5E-90CA-80ECF4CEC2F5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{625FF434-1FD6-49DF-8DA5-9E0A3FE16C0B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA0995A9-BC85-46D7-B844-AB8EC11F77C8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35CE1D63-FD20-470C-8A17-5B498BEE94F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D79B5CEA-52CE-4540-9D3C-8557BC027745}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C47E6E21-9F33-456E-92A8-B3540BDC9C23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B28B837A-4707-475A-80DC-B2281A0299FC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{645A5F28-4332-4FF7-824C-1C9E2D19EF64}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1238F3D1-603B-4B93-A09D-8AFE7650F8D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67B83659-2CED-4A9F-8EF2-97CDC56B21C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11716,7 +11716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56997A33-F759-4225-9CF0-7EC960BC4F67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943E23E-0860-44E0-B915-CB2F2265D7BE}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12992,17 +12992,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E92A1F8D-8890-4624-80E1-240AD333A024}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D573D773-E8F0-4B89-A828-F44D5EF3BE4A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8F27BF2C-7189-45B9-8B06-ABC8DA57770C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54BBF84F-2F4B-4270-8B2F-713940A00602}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8781CDCD-9E78-4027-8888-60411B8312DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAE32C71-41CD-4BBF-966A-F38D886AF604}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47B0C881-4397-4B59-9737-FE6308EFB7D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFAE6448-88C7-4AF2-9F58-EF6FF6C5728D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4032DA0B-9C6C-4E40-80A9-03F459D40A48}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65879C11-FDA0-420E-802F-9EAEB583F4BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08551136-FEF5-40CB-B274-0DDB872063D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{09FD54C7-D424-4FB8-B525-0A960A8CD6E4}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C501EB15-9C87-4B68-A6F5-2FB63E6C7826}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75A8F9AE-97E7-482C-AF12-E96571A656B7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09E33B20-5D32-40FF-BEA2-D21EC5ED5D73}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32FC7CF0-3E40-4E27-A889-93FAA50B334D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{576C2AC6-86CD-4505-833E-61BED52B3C23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB8698CC-E730-4F9A-8E9E-7FD3F685B6DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA059209-FB43-4356-A491-673ACBE4D48A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7541ECDC-E783-491D-8C1B-E30BD6DF8F35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BA427C5-582A-4C73-92C2-7833B6EDBFEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCBC98A1-63D2-4E85-843C-909CCD9293B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13015,7 +13015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE10C389-0391-40EE-9836-51A3D254C7BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007CAF03-9027-4E4C-89CF-3427E43C3501}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14289,17 +14289,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E00BC450-19C6-4402-8ED0-16B9776DDBD7}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6146A4A4-FD83-4E2E-837F-948FFA52E2CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA00971E-0FC6-47BD-88E1-450026BF9225}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3501BFD0-4B72-4C20-8BDB-0BCA55C2CEBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90322B30-9D2E-49A0-8CD4-2BB791D8CCC3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53A8D03C-22F1-4C4F-9280-3BE3032D16C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4ADBDD13-63D2-4F28-9407-76CA1EC7AC37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B20B80CD-A12C-412B-8313-4D7808B01992}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{110F7A8D-0346-4D74-BF06-27A63F770A9B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CB780AF-7461-4BCB-87E0-C69B7729D8D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8B672B9-A5AB-41D2-8819-97986A8C27C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C54961F-0169-4BD6-9776-A77FCF6BFC4A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{816173E9-36C1-4B64-A245-E057E35E6DE9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{079EA99F-89BC-4310-A262-7DAD5E603912}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{451FD1E8-6010-4E96-87B3-EB591450A7AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34B1D328-8E34-4E31-A1D4-F3DB8E0D5F93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E594E580-8D77-45F6-9C56-04C9A546832D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53E45C54-8636-4AB9-982D-4F36C4FB0F64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0450426E-5810-4843-B1B5-443CAAC2FF1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B6E9651-ABD1-496E-9F4F-68A961A1159B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FABD423F-2BFF-4A87-BCA1-29BDB0CDA9FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B404377A-2A2A-4397-BCD4-F872E8CC29FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14312,7 +14312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4023E8-1DC9-4EAB-8750-A44351D4B9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E99F238-8749-43B6-A202-412C0541A83B}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15584,17 +15584,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A427DB63-F1E3-4CB7-8CEE-D24CC60BE2DE}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{99C2CE16-1FDB-427B-B8A5-3804A3D704B6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41BD7D1E-A764-4159-B266-5B5E6345767C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9D70449-937A-4881-8D40-2A70A94EC4C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E2D2C65-908A-4AB6-AF6B-1CA3ACB166C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{921C7711-3964-460E-9A77-90308CE2BDC7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB9EC809-97A2-465C-9F6D-D1DB3BBB9220}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D14DBBE1-3C69-497A-84B2-ACF154FF571F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B89C7E91-1BD5-49B1-8A8D-306E150E4835}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B787279C-E11A-4E09-9178-552726A5F451}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D18EB03D-5533-4869-96F1-FAF1A9C9DDE2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B741FA4-31B3-4F5A-82B4-FB97290F9174}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C84DC0F3-F9C4-4D38-871D-08513C4EBD2C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC04D785-0EE2-4F07-A960-F8BAB4CE23D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B66B552-8FAF-4753-9675-B697147B01C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72F3A063-383F-4283-9C62-29A884CBE9EA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6CC2902-E3B4-4E4A-9AAB-E15B6A2142D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9D39547-116A-4A51-8D1D-84057C856D59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D2A4AC2C-6AD6-4A29-A816-F25A1DF58580}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D9805B1-6503-477D-9B39-DF9F4DAC9DE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF7B3E48-859A-47E7-824A-33F1AD6A61C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0D1B2FC-01C8-410F-84BC-7CDA67346C3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15607,7 +15607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF207D91-9D25-4D66-AEEC-5359576B527B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E16042-A724-4F3A-9CB3-71E9E5068006}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16879,17 +16879,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C5968F5-A252-47F1-937B-1EF230569FB4}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3F84D2A7-6248-4E17-9CA6-D7EED288D9EA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C991AA2-8019-4267-9960-4AE528BB1D61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EFB2C10B-5852-49D2-984A-3E9896DDE193}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B44F1BFA-AD06-45C2-8884-0D7EBC8E87AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E146B9F1-DA60-4FEB-B7F2-C580CF2B5FE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F21EC969-4313-476F-8569-5ABCE6787FFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84D32004-E1ED-4182-AF64-F251BC7EE587}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E35E6BF-EC74-4A8E-8F6E-6E537BB86439}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9F52BF2-0F48-4BC0-B214-265867514EEF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E9A789F-04F6-433E-9FBB-C7403AF61D0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAD7132A-8441-4D32-A1C8-1EB211779724}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FE4EB8AC-ACB0-437D-AED3-7EA13518BB24}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6BBED99A-E061-46F0-96EE-5608E31B97C9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33CE7CDB-D77E-4BEB-A2D8-6A95AE7E459D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{021D8B67-6E30-4C86-ACDD-2FC0FD5401A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AD8865A-72EA-4061-98B6-2A4DD9172FE3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A287B12-6009-47B3-A869-B288D3CB4CC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{851D2E8E-FF48-46B5-9A5E-B28C102E0D86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{556E72E9-B446-491F-8DC6-AC37B78ECEBE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3123414-CB38-49DB-A61B-F4C3905DA30B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D847818-D705-47BB-8900-FD6E7D844CD2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
